--- a/数据整理/stocks/港股/00019-太古股份公司A.xlsx
+++ b/数据整理/stocks/港股/00019-太古股份公司A.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.65</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.65</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00019-太古股份公司A.xlsx
+++ b/数据整理/stocks/港股/00019-太古股份公司A.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00019-太古股份公司A.xlsx
+++ b/数据整理/stocks/港股/00019-太古股份公司A.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00019-太古股份公司A.xlsx
+++ b/数据整理/stocks/港股/00019-太古股份公司A.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00019-太古股份公司A.xlsx
+++ b/数据整理/stocks/港股/00019-太古股份公司A.xlsx
@@ -922,12 +922,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/00019-太古股份公司A.xlsx
+++ b/数据整理/stocks/港股/00019-太古股份公司A.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,74 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>77.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -812,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,36 +793,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>006477</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>中邮沪港深精选混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -906,96 +874,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00019-太古股份公司A.xlsx
+++ b/数据整理/stocks/港股/00019-太古股份公司A.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -605,36 +622,188 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>012060</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>富国全球消费精选混合（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.99</t>
+          <t>66.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0670</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-0.0635</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -709,26 +878,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>77.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -737,6 +906,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -868,7 +1131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00019-太古股份公司A.xlsx
+++ b/数据整理/stocks/港股/00019-太古股份公司A.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +519,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -566,6 +583,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8954</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8954</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -804,100 +1143,6 @@
       </c>
       <c r="H6" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -972,26 +1217,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>77.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1000,6 +1245,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1131,7 +1470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
